--- a/Git常用命令.xlsx
+++ b/Git常用命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-firstgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94353054-8F10-42DD-ABC4-355973BEBACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BA3F2-2EC8-45F8-857B-125BCDF1E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>远程仓库命令(建议URL一般使用SSH地址)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*注* 在远程仓库创建项目后，在项目中默认添加了README等文件后，使用push将本地代码推送到远程仓库将报错，                                                                                         解决方法是先输入：$ git pull --rebase 设置的远程仓库名 分支名(一般为主分支master)，再进行push操作就会顺利将本地代码推送到远程仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,10 +397,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -685,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -699,18 +706,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -802,11 +809,11 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -886,18 +893,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -988,11 +995,11 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1071,14 +1078,30 @@
         <v>44</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A38:C39"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git常用命令.xlsx
+++ b/Git常用命令.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-firstgit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_GitTestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BA3F2-2EC8-45F8-857B-125BCDF1E0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEEFEF-3324-4CA6-9E3F-3BF3B2DC6309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>*注* 在远程仓库创建项目后，在项目中默认添加了README等文件后，使用push将本地代码推送到远程仓库将报错，                                                                                         解决方法是先输入：$ git pull --rebase 设置的远程仓库名 分支名(一般为主分支master)，再进行push操作就会顺利将本地代码推送到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm 文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除：将指定文件从本地历史仓库中删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除后，需要commit提交一下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -766,105 +778,105 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
@@ -872,10 +884,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>44</v>
@@ -883,57 +895,57 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>44</v>
@@ -941,10 +953,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>44</v>
@@ -952,156 +964,167 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-    </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A38:C39"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A39:C40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git常用命令.xlsx
+++ b/Git常用命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_GitTestProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEEFEF-3324-4CA6-9E3F-3BF3B2DC6309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC4747-5973-4BB2-A756-CED1475BAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*注* 在远程仓库创建项目后，在项目中默认添加了README等文件后，使用push将本地代码推送到远程仓库将报错，                                                                                         解决方法是先输入：$ git pull --rebase 设置的远程仓库名 分支名(一般为主分支master)，再进行push操作就会顺利将本地代码推送到远程仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>git rm 文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,6 +336,18 @@
   </si>
   <si>
     <t>删除后，需要commit提交一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*注* </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在远程仓库创建项目后，在项目中默认添加了README等文件后，使用push将本地代码推送到远程仓库将报错，                                                                                         解决方法是先输入：$ git pull --rebase 设置的远程仓库名 分支名(一般为主分支master)，                                                                          再进行push操作就会顺利将本地代码推送到远程仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.对代码冲突问题，解决方案是先拉取更新，修改后再进行提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,13 +409,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -417,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -718,18 +732,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -778,13 +792,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,11 +846,11 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -916,18 +930,18 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1018,11 +1032,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -1046,7 +1060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
@@ -1068,7 +1082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1093,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1090,7 +1104,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>24</v>
       </c>
@@ -1101,30 +1115,45 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+    <row r="39" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A39:C40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="B39:C41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Git常用命令.xlsx
+++ b/Git常用命令.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_GitTestProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-firstgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEEFEF-3324-4CA6-9E3F-3BF3B2DC6309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC432D-05F5-497E-9596-0C042D7C1FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>删除后，需要commit提交一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试代码冲突问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1115,6 +1119,11 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/Git常用命令.xlsx
+++ b/Git常用命令.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my-firstgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BC432D-05F5-497E-9596-0C042D7C1FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E3D778-40FC-48DF-B7AA-907F50023051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
   <si>
     <t>命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,10 +340,6 @@
   </si>
   <si>
     <t>删除后，需要commit提交一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试代码冲突问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1119,11 +1115,6 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
